--- a/data/pca/factorExposure/factorExposure_2016-11-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-11-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01702066255141805</v>
+        <v>0.01350838662409592</v>
       </c>
       <c r="C2">
-        <v>0.0455944523752243</v>
+        <v>-0.04211562457335233</v>
       </c>
       <c r="D2">
-        <v>-0.01749493559261404</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.05526006390227281</v>
+      </c>
+      <c r="E2">
+        <v>0.01661000764111742</v>
+      </c>
+      <c r="F2">
+        <v>0.08928236086735669</v>
+      </c>
+      <c r="G2">
+        <v>-0.0364431590190658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.05642963258965059</v>
+        <v>0.03488042138520533</v>
       </c>
       <c r="C3">
-        <v>0.1056613497138545</v>
+        <v>-0.09008756225743202</v>
       </c>
       <c r="D3">
-        <v>-0.02520805352247303</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.09242395466854515</v>
+      </c>
+      <c r="E3">
+        <v>0.03119923021387707</v>
+      </c>
+      <c r="F3">
+        <v>0.09358905643996837</v>
+      </c>
+      <c r="G3">
+        <v>0.06763504490477433</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06143446949523101</v>
+        <v>0.05517081680729331</v>
       </c>
       <c r="C4">
-        <v>0.06241166403753901</v>
+        <v>-0.06123348668045537</v>
       </c>
       <c r="D4">
-        <v>-0.001098171599707801</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.05637857902352662</v>
+      </c>
+      <c r="E4">
+        <v>0.009686944493819247</v>
+      </c>
+      <c r="F4">
+        <v>0.09385908314360401</v>
+      </c>
+      <c r="G4">
+        <v>0.02483131650288267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.02517280462410812</v>
+        <v>0.03478531231030259</v>
       </c>
       <c r="C6">
-        <v>0.05182794301350867</v>
+        <v>-0.03877452585859487</v>
       </c>
       <c r="D6">
-        <v>-0.006621740004804941</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.06405501666608686</v>
+      </c>
+      <c r="E6">
+        <v>0.01642418208660097</v>
+      </c>
+      <c r="F6">
+        <v>0.0891000813342283</v>
+      </c>
+      <c r="G6">
+        <v>0.006036751779757231</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02227388224011983</v>
+        <v>0.02009823458499425</v>
       </c>
       <c r="C7">
-        <v>0.04677303739717706</v>
+        <v>-0.03753603793966267</v>
       </c>
       <c r="D7">
-        <v>0.0169193586109468</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.02969449452059796</v>
+      </c>
+      <c r="E7">
+        <v>-0.001616700111101813</v>
+      </c>
+      <c r="F7">
+        <v>0.1174560244092221</v>
+      </c>
+      <c r="G7">
+        <v>-0.009741152643497047</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.001735856513589044</v>
+        <v>0.006046745811300226</v>
       </c>
       <c r="C8">
-        <v>0.01020750374537732</v>
+        <v>-0.01961370541686077</v>
       </c>
       <c r="D8">
-        <v>-0.01363623889951403</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.03399150885867171</v>
+      </c>
+      <c r="E8">
+        <v>0.009584891057298208</v>
+      </c>
+      <c r="F8">
+        <v>0.06956894055787152</v>
+      </c>
+      <c r="G8">
+        <v>0.006592051414802074</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.02828828919936734</v>
+        <v>0.03450883638663835</v>
       </c>
       <c r="C9">
-        <v>0.04468749476692033</v>
+        <v>-0.04805588267661036</v>
       </c>
       <c r="D9">
-        <v>0.007042503747138832</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.03825599172466412</v>
+      </c>
+      <c r="E9">
+        <v>0.006756383858312944</v>
+      </c>
+      <c r="F9">
+        <v>0.09857901754447415</v>
+      </c>
+      <c r="G9">
+        <v>0.008958238599063329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08122281322795381</v>
+        <v>0.09677906956755541</v>
       </c>
       <c r="C10">
-        <v>-0.1982584777918332</v>
+        <v>0.1942901579443691</v>
       </c>
       <c r="D10">
-        <v>-0.02320367522452813</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01312793269699428</v>
+      </c>
+      <c r="E10">
+        <v>0.03081760880551089</v>
+      </c>
+      <c r="F10">
+        <v>0.05187108136280611</v>
+      </c>
+      <c r="G10">
+        <v>0.0008975440728698392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04197975634397371</v>
+        <v>0.03695003913798293</v>
       </c>
       <c r="C11">
-        <v>0.05622270846310647</v>
+        <v>-0.05369550074390621</v>
       </c>
       <c r="D11">
-        <v>0.0145068585048962</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.02368833706504528</v>
+      </c>
+      <c r="E11">
+        <v>-0.01297127843979085</v>
+      </c>
+      <c r="F11">
+        <v>0.06964278009190279</v>
+      </c>
+      <c r="G11">
+        <v>0.005429191659714775</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.03592885626367223</v>
+        <v>0.036839570654059</v>
       </c>
       <c r="C12">
-        <v>0.04472924323741249</v>
+        <v>-0.04771126758820024</v>
       </c>
       <c r="D12">
-        <v>0.01193294770037229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.01840004198098615</v>
+      </c>
+      <c r="E12">
+        <v>-0.004000591679529585</v>
+      </c>
+      <c r="F12">
+        <v>0.07132322479238594</v>
+      </c>
+      <c r="G12">
+        <v>0.00127557335207889</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.008830274694370551</v>
+        <v>0.01297721857190429</v>
       </c>
       <c r="C13">
-        <v>0.04315702083451625</v>
+        <v>-0.04042932285745696</v>
       </c>
       <c r="D13">
-        <v>-0.01205146300262451</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.06143854614061185</v>
+      </c>
+      <c r="E13">
+        <v>0.02693870651952741</v>
+      </c>
+      <c r="F13">
+        <v>0.1340965693769815</v>
+      </c>
+      <c r="G13">
+        <v>0.009027014681822992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.005686668522072496</v>
+        <v>0.008147428845667333</v>
       </c>
       <c r="C14">
-        <v>0.02903318242011306</v>
+        <v>-0.02814462192671094</v>
       </c>
       <c r="D14">
-        <v>0.01430838122486563</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0226360727839456</v>
+      </c>
+      <c r="E14">
+        <v>0.006856386600071969</v>
+      </c>
+      <c r="F14">
+        <v>0.1070535986002136</v>
+      </c>
+      <c r="G14">
+        <v>-0.01597739392266747</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0001289899736332528</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.0002079693018009827</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.000768014624345965</v>
+      </c>
+      <c r="E15">
+        <v>0.0001876733240274244</v>
+      </c>
+      <c r="F15">
+        <v>0.002165434389453059</v>
+      </c>
+      <c r="G15">
+        <v>-0.0007551352560301749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0360754419255466</v>
+        <v>0.03409351442376744</v>
       </c>
       <c r="C16">
-        <v>0.0416420494803066</v>
+        <v>-0.04553404986823972</v>
       </c>
       <c r="D16">
-        <v>0.004887111525693565</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.02276467464856853</v>
+      </c>
+      <c r="E16">
+        <v>0.002272358475499278</v>
+      </c>
+      <c r="F16">
+        <v>0.07468821773697219</v>
+      </c>
+      <c r="G16">
+        <v>-0.009124374155276688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.03340703302566841</v>
+        <v>0.02037173823721585</v>
       </c>
       <c r="C19">
-        <v>0.05973560986423408</v>
+        <v>-0.05092000318386281</v>
       </c>
       <c r="D19">
-        <v>-0.03236235999685489</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.09996151966755187</v>
+      </c>
+      <c r="E19">
+        <v>0.03054027420849623</v>
+      </c>
+      <c r="F19">
+        <v>0.1419558005552249</v>
+      </c>
+      <c r="G19">
+        <v>-0.02508666107184481</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01312713598027228</v>
+        <v>0.01572412093203702</v>
       </c>
       <c r="C20">
-        <v>0.04518156520741496</v>
+        <v>-0.03889902680937935</v>
       </c>
       <c r="D20">
-        <v>-0.01834446128556386</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04530711750249374</v>
+      </c>
+      <c r="E20">
+        <v>0.03345766093674795</v>
+      </c>
+      <c r="F20">
+        <v>0.1031737061057704</v>
+      </c>
+      <c r="G20">
+        <v>-0.008375160654185162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.006978159798495186</v>
+        <v>0.009077884235285126</v>
       </c>
       <c r="C21">
-        <v>0.04039795801222956</v>
+        <v>-0.03931465105158459</v>
       </c>
       <c r="D21">
-        <v>-0.02175834166490551</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.06266151506205633</v>
+      </c>
+      <c r="E21">
+        <v>0.02804937269224979</v>
+      </c>
+      <c r="F21">
+        <v>0.1513581979874259</v>
+      </c>
+      <c r="G21">
+        <v>-0.005579655166295982</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.003368661889206833</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.01436412569753688</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.02530797107921353</v>
+      </c>
+      <c r="E22">
+        <v>6.276102398059652e-05</v>
+      </c>
+      <c r="F22">
+        <v>0.01861988402455001</v>
+      </c>
+      <c r="G22">
+        <v>0.03386198581702225</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.003401639375761575</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.01429218793826189</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.02506802797903167</v>
+      </c>
+      <c r="E23">
+        <v>0.0003731674416957323</v>
+      </c>
+      <c r="F23">
+        <v>0.01833120533354717</v>
+      </c>
+      <c r="G23">
+        <v>0.03393433104884643</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.02901701534361149</v>
+        <v>0.03099292615885184</v>
       </c>
       <c r="C24">
-        <v>0.04842418360929978</v>
+        <v>-0.05145743322145971</v>
       </c>
       <c r="D24">
-        <v>0.01507353777836087</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.02055610732109599</v>
+      </c>
+      <c r="E24">
+        <v>-0.005198235104596091</v>
+      </c>
+      <c r="F24">
+        <v>0.07775922643904112</v>
+      </c>
+      <c r="G24">
+        <v>-0.002676230243840877</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04654623237362955</v>
+        <v>0.04246633710534514</v>
       </c>
       <c r="C25">
-        <v>0.05514002275898041</v>
+        <v>-0.05723873241993399</v>
       </c>
       <c r="D25">
-        <v>0.02412601703946731</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.01572619975039816</v>
+      </c>
+      <c r="E25">
+        <v>-0.005731023369520528</v>
+      </c>
+      <c r="F25">
+        <v>0.08635692793981209</v>
+      </c>
+      <c r="G25">
+        <v>0.01220992460717923</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.009132794622379712</v>
+        <v>0.01496313578953365</v>
       </c>
       <c r="C26">
-        <v>0.01248101160288207</v>
+        <v>-0.01287258013661879</v>
       </c>
       <c r="D26">
-        <v>0.001896680626167336</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01729270489648249</v>
+      </c>
+      <c r="E26">
+        <v>0.008184157703208458</v>
+      </c>
+      <c r="F26">
+        <v>0.08294089756076775</v>
+      </c>
+      <c r="G26">
+        <v>-0.02137509063759484</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.09446236712871561</v>
+        <v>0.1294920591067013</v>
       </c>
       <c r="C28">
-        <v>-0.2255408964495956</v>
+        <v>0.2445227713695382</v>
       </c>
       <c r="D28">
-        <v>-0.01287464238540726</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.004536989069481256</v>
+      </c>
+      <c r="E28">
+        <v>0.03504858252047306</v>
+      </c>
+      <c r="F28">
+        <v>0.06090249344815953</v>
+      </c>
+      <c r="G28">
+        <v>0.00770058101877719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01031581698410958</v>
+        <v>0.00813136512629737</v>
       </c>
       <c r="C29">
-        <v>0.02221417590862372</v>
+        <v>-0.02378342456217525</v>
       </c>
       <c r="D29">
-        <v>0.01276000810134308</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01357414948601457</v>
+      </c>
+      <c r="E29">
+        <v>0.01115303775916128</v>
+      </c>
+      <c r="F29">
+        <v>0.1008302344891727</v>
+      </c>
+      <c r="G29">
+        <v>-0.002136350670016693</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.04063677046089754</v>
+        <v>0.03850912146828083</v>
       </c>
       <c r="C30">
-        <v>0.07427914687410603</v>
+        <v>-0.06619667127072427</v>
       </c>
       <c r="D30">
-        <v>0.006236918323629556</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.09024270390886117</v>
+      </c>
+      <c r="E30">
+        <v>-0.01547607553824618</v>
+      </c>
+      <c r="F30">
+        <v>0.1105541491446825</v>
+      </c>
+      <c r="G30">
+        <v>-0.02918490236659621</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.04226809564565293</v>
+        <v>0.05636958435481895</v>
       </c>
       <c r="C31">
-        <v>0.03096346888328156</v>
+        <v>-0.0441987193975012</v>
       </c>
       <c r="D31">
-        <v>0.01465557334534288</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.002155397665486122</v>
+      </c>
+      <c r="E31">
+        <v>0.03364323866101989</v>
+      </c>
+      <c r="F31">
+        <v>0.09279926876488337</v>
+      </c>
+      <c r="G31">
+        <v>0.02739966524621816</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.006145679835876777</v>
+        <v>0.003552282953555434</v>
       </c>
       <c r="C32">
-        <v>0.0360393360469258</v>
+        <v>-0.02568822699540255</v>
       </c>
       <c r="D32">
-        <v>-0.007651499424441785</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.04352869609405415</v>
+      </c>
+      <c r="E32">
+        <v>-0.005925931076889838</v>
+      </c>
+      <c r="F32">
+        <v>0.07941423042039432</v>
+      </c>
+      <c r="G32">
+        <v>-0.01029836912230545</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03026518070976057</v>
+        <v>0.02644551453560401</v>
       </c>
       <c r="C33">
-        <v>0.05802007465717936</v>
+        <v>-0.04853791848335558</v>
       </c>
       <c r="D33">
-        <v>-6.632896729342466e-05</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.07038585053465674</v>
+      </c>
+      <c r="E33">
+        <v>0.00617329027945444</v>
+      </c>
+      <c r="F33">
+        <v>0.1529242628673698</v>
+      </c>
+      <c r="G33">
+        <v>0.006422311879555455</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.05315461068980507</v>
+        <v>0.04293537245426685</v>
       </c>
       <c r="C34">
-        <v>0.05347136096470125</v>
+        <v>-0.06208432442611003</v>
       </c>
       <c r="D34">
-        <v>0.01928247976472914</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.02237490020259434</v>
+      </c>
+      <c r="E34">
+        <v>-0.01955598655996326</v>
+      </c>
+      <c r="F34">
+        <v>0.07949595207853706</v>
+      </c>
+      <c r="G34">
+        <v>-2.351340109235584e-05</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.00969688889597233</v>
+        <v>0.01528196837059413</v>
       </c>
       <c r="C36">
-        <v>0.007994627605395125</v>
+        <v>-0.008366149774808738</v>
       </c>
       <c r="D36">
-        <v>0.007707960023617854</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02047642267222561</v>
+      </c>
+      <c r="E36">
+        <v>0.01281334421396433</v>
+      </c>
+      <c r="F36">
+        <v>0.09617374858993644</v>
+      </c>
+      <c r="G36">
+        <v>0.0007295340893858578</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03902332290115328</v>
+        <v>0.03144210827524379</v>
       </c>
       <c r="C38">
-        <v>0.02017308788363217</v>
+        <v>-0.02255238926219804</v>
       </c>
       <c r="D38">
-        <v>0.009059497120292531</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02016436423358707</v>
+      </c>
+      <c r="E38">
+        <v>0.01488048621026105</v>
+      </c>
+      <c r="F38">
+        <v>0.08713825320691694</v>
+      </c>
+      <c r="G38">
+        <v>0.003537895597093673</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.0383563130674535</v>
+        <v>0.03692581559646763</v>
       </c>
       <c r="C39">
-        <v>0.08630063122006293</v>
+        <v>-0.07565245586777015</v>
       </c>
       <c r="D39">
-        <v>6.714057227337407e-05</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.04548053368241459</v>
+      </c>
+      <c r="E39">
+        <v>-0.01405026789219903</v>
+      </c>
+      <c r="F39">
+        <v>0.08575253778337551</v>
+      </c>
+      <c r="G39">
+        <v>-0.03319604140480224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.0165578187814874</v>
+        <v>0.01605115023675767</v>
       </c>
       <c r="C40">
-        <v>0.02814170917328749</v>
+        <v>-0.03736280538525519</v>
       </c>
       <c r="D40">
-        <v>-0.01495292906623212</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03471688844978889</v>
+      </c>
+      <c r="E40">
+        <v>0.03058870102419293</v>
+      </c>
+      <c r="F40">
+        <v>0.1169474614723923</v>
+      </c>
+      <c r="G40">
+        <v>0.04092236489357035</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.0120008829650422</v>
+        <v>0.01891542172449726</v>
       </c>
       <c r="C41">
-        <v>-0.0005081884694539694</v>
+        <v>0.0009303827893932231</v>
       </c>
       <c r="D41">
-        <v>0.008173109723200424</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.01679885942372112</v>
+      </c>
+      <c r="E41">
+        <v>0.01630180100707142</v>
+      </c>
+      <c r="F41">
+        <v>0.08712615759509849</v>
+      </c>
+      <c r="G41">
+        <v>-0.006077212890898255</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.002807817611617281</v>
+        <v>0.002196288741141656</v>
       </c>
       <c r="C42">
-        <v>0.04725667792169143</v>
+        <v>-0.02533868685299159</v>
       </c>
       <c r="D42">
-        <v>-0.02627550065599462</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>0.003606400329772134</v>
+      </c>
+      <c r="E42">
+        <v>0.02272042838254462</v>
+      </c>
+      <c r="F42">
+        <v>-0.03466253567886386</v>
+      </c>
+      <c r="G42">
+        <v>-0.01365204028550513</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03365332717323195</v>
+        <v>0.03287454160726524</v>
       </c>
       <c r="C43">
-        <v>0.01159606304793294</v>
+        <v>-0.0132081298510158</v>
       </c>
       <c r="D43">
-        <v>0.009857702064668393</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03492251359147839</v>
+      </c>
+      <c r="E43">
+        <v>0.01317317511747213</v>
+      </c>
+      <c r="F43">
+        <v>0.1106495038434105</v>
+      </c>
+      <c r="G43">
+        <v>0.01622511198127405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0215993520945782</v>
+        <v>0.01503626692397768</v>
       </c>
       <c r="C44">
-        <v>0.05643691727419243</v>
+        <v>-0.05259152459508718</v>
       </c>
       <c r="D44">
-        <v>-0.0003011534464228956</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0380641530041728</v>
+      </c>
+      <c r="E44">
+        <v>0.0248600949750311</v>
+      </c>
+      <c r="F44">
+        <v>0.1120473369777314</v>
+      </c>
+      <c r="G44">
+        <v>-0.009043776646675905</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>5.420373557836376e-06</v>
+        <v>0.01023967324969523</v>
       </c>
       <c r="C46">
-        <v>0.01472345448464346</v>
+        <v>-0.01917682962453898</v>
       </c>
       <c r="D46">
-        <v>0.0214289154338459</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.006390541095107646</v>
+      </c>
+      <c r="E46">
+        <v>0.01651839868167386</v>
+      </c>
+      <c r="F46">
+        <v>0.1102043817953769</v>
+      </c>
+      <c r="G46">
+        <v>-0.008475069154190534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.07801868437235922</v>
+        <v>0.08546633047987515</v>
       </c>
       <c r="C47">
-        <v>0.06706218292578808</v>
+        <v>-0.0739805019323044</v>
       </c>
       <c r="D47">
-        <v>0.00855662829200785</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.008923147316001877</v>
+      </c>
+      <c r="E47">
+        <v>0.0421314135044147</v>
+      </c>
+      <c r="F47">
+        <v>0.09201353262640598</v>
+      </c>
+      <c r="G47">
+        <v>0.03094589554827931</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.01745572265716906</v>
+        <v>0.01644687967849738</v>
       </c>
       <c r="C48">
-        <v>0.01108644361696606</v>
+        <v>-0.01525077662442197</v>
       </c>
       <c r="D48">
-        <v>0.01138628166686773</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01480428823952738</v>
+      </c>
+      <c r="E48">
+        <v>0.02174343190743305</v>
+      </c>
+      <c r="F48">
+        <v>0.107054480415031</v>
+      </c>
+      <c r="G48">
+        <v>-0.004173974335945345</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.0867000194640383</v>
+        <v>0.07738767876782551</v>
       </c>
       <c r="C50">
-        <v>0.06459460627933235</v>
+        <v>-0.07078518998028568</v>
       </c>
       <c r="D50">
-        <v>0.02035864175328985</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.005192411227497806</v>
+      </c>
+      <c r="E50">
+        <v>0.03993017401785271</v>
+      </c>
+      <c r="F50">
+        <v>0.09590374833044782</v>
+      </c>
+      <c r="G50">
+        <v>0.05838913014401358</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01740936861686451</v>
+        <v>0.01284586466202241</v>
       </c>
       <c r="C51">
-        <v>0.04053471822173163</v>
+        <v>-0.03428721506791663</v>
       </c>
       <c r="D51">
-        <v>0.01196393549235372</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.04001394742532356</v>
+      </c>
+      <c r="E51">
+        <v>-0.004211247623259212</v>
+      </c>
+      <c r="F51">
+        <v>0.1019892780248765</v>
+      </c>
+      <c r="G51">
+        <v>-0.01959735724428198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.09845274930670013</v>
+        <v>0.08838236827164844</v>
       </c>
       <c r="C53">
-        <v>0.06831167172980242</v>
+        <v>-0.0860332932898852</v>
       </c>
       <c r="D53">
-        <v>0.03002372812460222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02952572094616559</v>
+      </c>
+      <c r="E53">
+        <v>0.04918678864056766</v>
+      </c>
+      <c r="F53">
+        <v>0.09821222922950813</v>
+      </c>
+      <c r="G53">
+        <v>0.04132387067581406</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.0298005513792899</v>
+        <v>0.03122011009666975</v>
       </c>
       <c r="C54">
-        <v>0.005897124699993196</v>
+        <v>-0.02131411999286629</v>
       </c>
       <c r="D54">
-        <v>0.002945075833737164</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.02495170701619686</v>
+      </c>
+      <c r="E54">
+        <v>0.01203255024680887</v>
+      </c>
+      <c r="F54">
+        <v>0.1080484303041931</v>
+      </c>
+      <c r="G54">
+        <v>-0.002676136188634656</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07457267451628258</v>
+        <v>0.08144295030193643</v>
       </c>
       <c r="C55">
-        <v>0.06330391870841692</v>
+        <v>-0.06947055602870472</v>
       </c>
       <c r="D55">
-        <v>0.02636955562588874</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.03613769734739978</v>
+      </c>
+      <c r="E55">
+        <v>0.04723794638782074</v>
+      </c>
+      <c r="F55">
+        <v>0.06712836099175104</v>
+      </c>
+      <c r="G55">
+        <v>0.03379360895466883</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1516521148500853</v>
+        <v>0.1429994136420141</v>
       </c>
       <c r="C56">
-        <v>0.08951240656462446</v>
+        <v>-0.104171479412027</v>
       </c>
       <c r="D56">
-        <v>0.02327881310663078</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03917921413931946</v>
+      </c>
+      <c r="E56">
+        <v>0.05430060171341725</v>
+      </c>
+      <c r="F56">
+        <v>0.0605982604510208</v>
+      </c>
+      <c r="G56">
+        <v>0.04331894083412607</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.004970995739985905</v>
+        <v>0.002071642289633906</v>
       </c>
       <c r="C57">
-        <v>0.008363513870165016</v>
+        <v>-0.004246683109090572</v>
       </c>
       <c r="D57">
-        <v>-0.03115186942636992</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>0.02788475518962249</v>
+      </c>
+      <c r="E57">
+        <v>0.00175002619775061</v>
+      </c>
+      <c r="F57">
+        <v>0.01044026474001651</v>
+      </c>
+      <c r="G57">
+        <v>-0.003072466707231772</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.05912944065035453</v>
+        <v>0.03877661751456074</v>
       </c>
       <c r="C58">
-        <v>0.08264225410985454</v>
+        <v>-0.03817189838335786</v>
       </c>
       <c r="D58">
-        <v>-0.9734702005971331</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.6891849293529824</v>
+      </c>
+      <c r="E58">
+        <v>0.6151824892301606</v>
+      </c>
+      <c r="F58">
+        <v>-0.313637156118883</v>
+      </c>
+      <c r="G58">
+        <v>0.02705289763763988</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1417484177216488</v>
+        <v>0.1512312408594036</v>
       </c>
       <c r="C59">
-        <v>-0.2223885637500223</v>
+        <v>0.2018815735780097</v>
       </c>
       <c r="D59">
-        <v>-0.01358322768216419</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.02158591189572596</v>
+      </c>
+      <c r="E59">
+        <v>0.01279826412228425</v>
+      </c>
+      <c r="F59">
+        <v>0.03774079774021332</v>
+      </c>
+      <c r="G59">
+        <v>-0.02331899836310456</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3135162230789433</v>
+        <v>0.2861254965414891</v>
       </c>
       <c r="C60">
-        <v>0.08708260991971011</v>
+        <v>-0.1007588613048267</v>
       </c>
       <c r="D60">
-        <v>0.003614856264220057</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1384020071624983</v>
+      </c>
+      <c r="E60">
+        <v>-0.294118730949421</v>
+      </c>
+      <c r="F60">
+        <v>-0.1432285861184728</v>
+      </c>
+      <c r="G60">
+        <v>0.05981675497123558</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.03588089421217391</v>
+        <v>0.03939141125358778</v>
       </c>
       <c r="C61">
-        <v>0.06351965514623603</v>
+        <v>-0.0632679408772809</v>
       </c>
       <c r="D61">
-        <v>0.0009769291731713395</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.03759400190516555</v>
+      </c>
+      <c r="E61">
+        <v>-0.00426190066183221</v>
+      </c>
+      <c r="F61">
+        <v>0.08696820116460288</v>
+      </c>
+      <c r="G61">
+        <v>0.001362496636393126</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01649696483826296</v>
+        <v>0.01561613841333581</v>
       </c>
       <c r="C63">
-        <v>0.02777556055760403</v>
+        <v>-0.02844951341078033</v>
       </c>
       <c r="D63">
-        <v>0.02068927084052732</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.0145578147968365</v>
+      </c>
+      <c r="E63">
+        <v>0.01306706011391833</v>
+      </c>
+      <c r="F63">
+        <v>0.09112638644120323</v>
+      </c>
+      <c r="G63">
+        <v>0.01973903325208411</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.04793703388148036</v>
+        <v>0.05134113356166436</v>
       </c>
       <c r="C64">
-        <v>0.02969838047070763</v>
+        <v>-0.04836722089235566</v>
       </c>
       <c r="D64">
-        <v>0.01630150001030764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.009928855882908726</v>
+      </c>
+      <c r="E64">
+        <v>-0.002804330170751874</v>
+      </c>
+      <c r="F64">
+        <v>0.09096776242874285</v>
+      </c>
+      <c r="G64">
+        <v>-0.01638556092337583</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.08479636532886668</v>
+        <v>0.07004639513696458</v>
       </c>
       <c r="C65">
-        <v>0.06049845576624048</v>
+        <v>-0.04475651756943453</v>
       </c>
       <c r="D65">
-        <v>-0.008266971989192837</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.07111128794338832</v>
+      </c>
+      <c r="E65">
+        <v>-0.004946051856427288</v>
+      </c>
+      <c r="F65">
+        <v>0.04085703943206452</v>
+      </c>
+      <c r="G65">
+        <v>-0.007166116220115998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.06141902001777086</v>
+        <v>0.05007118389915809</v>
       </c>
       <c r="C66">
-        <v>0.1217549986516058</v>
+        <v>-0.09977445063187583</v>
       </c>
       <c r="D66">
-        <v>-0.002880865961726117</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.06864526539155022</v>
+      </c>
+      <c r="E66">
+        <v>-0.01735706437271322</v>
+      </c>
+      <c r="F66">
+        <v>0.09120366421035186</v>
+      </c>
+      <c r="G66">
+        <v>-0.01439232747994155</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.06546988741498072</v>
+        <v>0.05386575351481197</v>
       </c>
       <c r="C67">
-        <v>0.02356256305571425</v>
+        <v>-0.02838227781823048</v>
       </c>
       <c r="D67">
-        <v>0.01495109679101596</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.005796367654648274</v>
+      </c>
+      <c r="E67">
+        <v>0.008797815801594066</v>
+      </c>
+      <c r="F67">
+        <v>0.07210708910293588</v>
+      </c>
+      <c r="G67">
+        <v>0.008778598639606981</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1163727433032764</v>
+        <v>0.1532356133700472</v>
       </c>
       <c r="C68">
-        <v>-0.2866267842840932</v>
+        <v>0.2661946112215074</v>
       </c>
       <c r="D68">
-        <v>-0.0276214758981341</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.007439701588349771</v>
+      </c>
+      <c r="E68">
+        <v>0.04193573039711634</v>
+      </c>
+      <c r="F68">
+        <v>0.02511636290858842</v>
+      </c>
+      <c r="G68">
+        <v>-0.002933591774802454</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.08547611428678621</v>
+        <v>0.08409188771439885</v>
       </c>
       <c r="C69">
-        <v>0.06232426505112912</v>
+        <v>-0.07895871096335311</v>
       </c>
       <c r="D69">
-        <v>0.03243777577185809</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0132001673387774</v>
+      </c>
+      <c r="E69">
+        <v>0.01427696192559555</v>
+      </c>
+      <c r="F69">
+        <v>0.09723979292571996</v>
+      </c>
+      <c r="G69">
+        <v>0.004331387288102252</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1208325944555314</v>
+        <v>0.14189160611795</v>
       </c>
       <c r="C71">
-        <v>-0.239214324967614</v>
+        <v>0.236392119101061</v>
       </c>
       <c r="D71">
-        <v>-0.02877856892543883</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.02316638537305927</v>
+      </c>
+      <c r="E71">
+        <v>0.04082474796070095</v>
+      </c>
+      <c r="F71">
+        <v>0.06797462140413051</v>
+      </c>
+      <c r="G71">
+        <v>0.0169015693048443</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.07773629598761927</v>
+        <v>0.08755577308171449</v>
       </c>
       <c r="C72">
-        <v>0.05878952058984922</v>
+        <v>-0.05773134061532651</v>
       </c>
       <c r="D72">
-        <v>0.04970705345418443</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.006167659736778499</v>
+      </c>
+      <c r="E72">
+        <v>-0.02287951681387922</v>
+      </c>
+      <c r="F72">
+        <v>0.07835723871668349</v>
+      </c>
+      <c r="G72">
+        <v>0.009583547161761668</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4449197540952813</v>
+        <v>0.3623431934093257</v>
       </c>
       <c r="C73">
-        <v>0.08635361699855149</v>
+        <v>-0.08509306487282849</v>
       </c>
       <c r="D73">
-        <v>-0.01231469792628064</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.3157550720398107</v>
+      </c>
+      <c r="E73">
+        <v>-0.5288377292526659</v>
+      </c>
+      <c r="F73">
+        <v>-0.319334358496992</v>
+      </c>
+      <c r="G73">
+        <v>0.1591317034868764</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1171409315388736</v>
+        <v>0.1104357609651108</v>
       </c>
       <c r="C74">
-        <v>0.1116500248661214</v>
+        <v>-0.1054108049331828</v>
       </c>
       <c r="D74">
-        <v>0.02060796764673502</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01587597120431159</v>
+      </c>
+      <c r="E74">
+        <v>0.06510998206731831</v>
+      </c>
+      <c r="F74">
+        <v>0.07942227785432533</v>
+      </c>
+      <c r="G74">
+        <v>0.05504146253470542</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2642276826836485</v>
+        <v>0.2552064044886145</v>
       </c>
       <c r="C75">
-        <v>0.1165159752138894</v>
+        <v>-0.1361534350912362</v>
       </c>
       <c r="D75">
-        <v>0.03368195309637703</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1033160577691319</v>
+      </c>
+      <c r="E75">
+        <v>0.1246007427857598</v>
+      </c>
+      <c r="F75">
+        <v>0.02547116329513916</v>
+      </c>
+      <c r="G75">
+        <v>0.06482115049858564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1180310920975798</v>
+        <v>0.1261114886368053</v>
       </c>
       <c r="C76">
-        <v>0.1005709722968599</v>
+        <v>-0.1033050477596032</v>
       </c>
       <c r="D76">
-        <v>0.0312435736839279</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04411923002469768</v>
+      </c>
+      <c r="E76">
+        <v>0.08268939064216747</v>
+      </c>
+      <c r="F76">
+        <v>0.07849536404444134</v>
+      </c>
+      <c r="G76">
+        <v>0.04578848182612751</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.07017858296218507</v>
+        <v>0.06633670864260637</v>
       </c>
       <c r="C77">
-        <v>0.05845792497150131</v>
+        <v>-0.06279625831597206</v>
       </c>
       <c r="D77">
-        <v>-0.0273121564803157</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.05681279482485509</v>
+      </c>
+      <c r="E77">
+        <v>0.03825329303482865</v>
+      </c>
+      <c r="F77">
+        <v>0.1021304623801979</v>
+      </c>
+      <c r="G77">
+        <v>-0.1433451261068086</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04317049121010639</v>
+        <v>0.04266307596044734</v>
       </c>
       <c r="C78">
-        <v>0.04864030309098506</v>
+        <v>-0.05599194585658075</v>
       </c>
       <c r="D78">
-        <v>-0.001816612789733179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.05652874065052888</v>
+      </c>
+      <c r="E78">
+        <v>-0.01911249244695612</v>
+      </c>
+      <c r="F78">
+        <v>0.09861833366339502</v>
+      </c>
+      <c r="G78">
+        <v>-0.01093669688323625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.00508469242204403</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>-0.02296832006817959</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.007922500141674648</v>
+      </c>
+      <c r="E79">
+        <v>0.02109125252417323</v>
+      </c>
+      <c r="F79">
+        <v>0.02321669266321621</v>
+      </c>
+      <c r="G79">
+        <v>0.03517025097611077</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04930768712505195</v>
+        <v>0.03933561489108415</v>
       </c>
       <c r="C80">
-        <v>0.05631976582129314</v>
+        <v>-0.04755988888426844</v>
       </c>
       <c r="D80">
-        <v>-0.01537611231885133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.04449175078042733</v>
+      </c>
+      <c r="E80">
+        <v>0.000348251246839923</v>
+      </c>
+      <c r="F80">
+        <v>0.0373715514084367</v>
+      </c>
+      <c r="G80">
+        <v>-0.04923104856144411</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1399829660178942</v>
+        <v>0.1410651436549811</v>
       </c>
       <c r="C81">
-        <v>0.07754377755779246</v>
+        <v>-0.09449057781182116</v>
       </c>
       <c r="D81">
-        <v>0.02740359391254334</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07603496050923476</v>
+      </c>
+      <c r="E81">
+        <v>0.1032630962555085</v>
+      </c>
+      <c r="F81">
+        <v>0.04061088053350591</v>
+      </c>
+      <c r="G81">
+        <v>0.05017222468055942</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.06281017707974014</v>
+        <v>0.1795112276779412</v>
       </c>
       <c r="C82">
-        <v>0.04266789560683158</v>
+        <v>-0.1285222463285406</v>
       </c>
       <c r="D82">
-        <v>0.02463927532638047</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2064814273953178</v>
+      </c>
+      <c r="E82">
+        <v>0.05842145035813848</v>
+      </c>
+      <c r="F82">
+        <v>0.04265234525479858</v>
+      </c>
+      <c r="G82">
+        <v>0.00491824128797941</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.02904923639433296</v>
+        <v>0.0285745279042883</v>
       </c>
       <c r="C83">
-        <v>0.02041810096722503</v>
+        <v>-0.03356842008258933</v>
       </c>
       <c r="D83">
-        <v>-0.01391512367508732</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.03230566984892417</v>
+      </c>
+      <c r="E83">
+        <v>-0.006877987893711743</v>
+      </c>
+      <c r="F83">
+        <v>0.05474664294499958</v>
+      </c>
+      <c r="G83">
+        <v>-0.03106133770579726</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2414197984624599</v>
+        <v>0.2104777009343458</v>
       </c>
       <c r="C85">
-        <v>0.116449121719021</v>
+        <v>-0.125820590898188</v>
       </c>
       <c r="D85">
-        <v>0.1034228748831002</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.1076731737637946</v>
+      </c>
+      <c r="E85">
+        <v>0.04939040481650643</v>
+      </c>
+      <c r="F85">
+        <v>-0.00799254753857683</v>
+      </c>
+      <c r="G85">
+        <v>0.1106013443783073</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01266882460996804</v>
+        <v>0.01481876067746798</v>
       </c>
       <c r="C86">
-        <v>0.02535360754396953</v>
+        <v>-0.02664597910060865</v>
       </c>
       <c r="D86">
-        <v>-0.002478135134481296</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.07332843808375639</v>
+      </c>
+      <c r="E86">
+        <v>-0.003208275147115433</v>
+      </c>
+      <c r="F86">
+        <v>0.1617665717505957</v>
+      </c>
+      <c r="G86">
+        <v>-0.03164112844775663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.01412589822794426</v>
+        <v>0.02040760860094371</v>
       </c>
       <c r="C87">
-        <v>0.02513862520086578</v>
+        <v>-0.01791326719098418</v>
       </c>
       <c r="D87">
-        <v>-0.07238346899782783</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.09694955719278725</v>
+      </c>
+      <c r="E87">
+        <v>0.04276254786444914</v>
+      </c>
+      <c r="F87">
+        <v>0.1095839645539178</v>
+      </c>
+      <c r="G87">
+        <v>-0.05031982343601924</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.09998339180051362</v>
+        <v>0.08982405093119911</v>
       </c>
       <c r="C88">
-        <v>0.06244494309631531</v>
+        <v>-0.0626009924491731</v>
       </c>
       <c r="D88">
-        <v>0.01195248608114118</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.007993125178026327</v>
+      </c>
+      <c r="E88">
+        <v>0.01467250106604653</v>
+      </c>
+      <c r="F88">
+        <v>0.09486416309790699</v>
+      </c>
+      <c r="G88">
+        <v>-0.04534153529139549</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1932873321489862</v>
+        <v>0.2144098767144874</v>
       </c>
       <c r="C89">
-        <v>-0.3741291531281581</v>
+        <v>0.3688593688921515</v>
       </c>
       <c r="D89">
-        <v>0.01505909810693222</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.01658825139326344</v>
+      </c>
+      <c r="E89">
+        <v>0.008043450990171733</v>
+      </c>
+      <c r="F89">
+        <v>0.0759787093412036</v>
+      </c>
+      <c r="G89">
+        <v>-0.09057802112530285</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1758714369891873</v>
+        <v>0.202456963571423</v>
       </c>
       <c r="C90">
-        <v>-0.3503252311284509</v>
+        <v>0.3217781582458086</v>
       </c>
       <c r="D90">
-        <v>-0.02547789574525714</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01103775131482506</v>
+      </c>
+      <c r="E90">
+        <v>0.05193045662998082</v>
+      </c>
+      <c r="F90">
+        <v>0.05192999168419333</v>
+      </c>
+      <c r="G90">
+        <v>-0.02816179431089929</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.2038508097660732</v>
+        <v>0.1895959931833346</v>
       </c>
       <c r="C91">
-        <v>0.1051958885548456</v>
+        <v>-0.1333493142214502</v>
       </c>
       <c r="D91">
-        <v>0.03851519405660449</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08552603885865706</v>
+      </c>
+      <c r="E91">
+        <v>0.1001690639216315</v>
+      </c>
+      <c r="F91">
+        <v>0.05384389098883914</v>
+      </c>
+      <c r="G91">
+        <v>0.04767683408929226</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1752089062545368</v>
+        <v>0.1852371702481446</v>
       </c>
       <c r="C92">
-        <v>-0.2790688339395519</v>
+        <v>0.2748612412344148</v>
       </c>
       <c r="D92">
-        <v>-0.01939274462816076</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.006159888497642874</v>
+      </c>
+      <c r="E92">
+        <v>0.07558804448933437</v>
+      </c>
+      <c r="F92">
+        <v>0.07572478153650331</v>
+      </c>
+      <c r="G92">
+        <v>-0.02648580380740943</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1884582720283812</v>
+        <v>0.2244050493548217</v>
       </c>
       <c r="C93">
-        <v>-0.3283712429669705</v>
+        <v>0.3160116736295377</v>
       </c>
       <c r="D93">
-        <v>-0.01978585919641484</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.004384972692196196</v>
+      </c>
+      <c r="E93">
+        <v>0.03636313750956733</v>
+      </c>
+      <c r="F93">
+        <v>0.05913339071272781</v>
+      </c>
+      <c r="G93">
+        <v>0.01409034171176837</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.2765779478518538</v>
+        <v>0.3352404321401978</v>
       </c>
       <c r="C94">
-        <v>0.1358740133754576</v>
+        <v>-0.1868980467878726</v>
       </c>
       <c r="D94">
-        <v>0.06331956422386958</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4148890221890951</v>
+      </c>
+      <c r="E94">
+        <v>0.3185604872144349</v>
+      </c>
+      <c r="F94">
+        <v>-0.432779018746835</v>
+      </c>
+      <c r="G94">
+        <v>-0.2102712502149354</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.08647943488128218</v>
+        <v>0.08020605968782143</v>
       </c>
       <c r="C95">
-        <v>0.08730737336162894</v>
+        <v>-0.08719367202656879</v>
       </c>
       <c r="D95">
-        <v>-0.06223270422554288</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.1371438137114906</v>
+      </c>
+      <c r="E95">
+        <v>-0.1507508543734324</v>
+      </c>
+      <c r="F95">
+        <v>0.007541094130832204</v>
+      </c>
+      <c r="G95">
+        <v>-0.9058608489642814</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.2114903441413554</v>
+        <v>0.1956094932944184</v>
       </c>
       <c r="C98">
-        <v>0.03745177870630221</v>
+        <v>-0.04683973598711509</v>
       </c>
       <c r="D98">
-        <v>-0.02492327097294794</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1372820725837739</v>
+      </c>
+      <c r="E98">
+        <v>-0.183948816802963</v>
+      </c>
+      <c r="F98">
+        <v>-0.0470129812887624</v>
+      </c>
+      <c r="G98">
+        <v>0.1030105810402383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009971975487990847</v>
+        <v>0.007927003597120254</v>
       </c>
       <c r="C101">
-        <v>0.02228278921544436</v>
+        <v>-0.02372899263207964</v>
       </c>
       <c r="D101">
-        <v>0.01282882614523876</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01320849506405099</v>
+      </c>
+      <c r="E101">
+        <v>0.0116929279853638</v>
+      </c>
+      <c r="F101">
+        <v>0.1005180651583368</v>
+      </c>
+      <c r="G101">
+        <v>-0.003092201601542632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1247495023774059</v>
+        <v>0.1219725514184754</v>
       </c>
       <c r="C102">
-        <v>0.06905775109133001</v>
+        <v>-0.0952697962553616</v>
       </c>
       <c r="D102">
-        <v>0.02865556495022495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04534641111389131</v>
+      </c>
+      <c r="E102">
+        <v>0.01308990097277088</v>
+      </c>
+      <c r="F102">
+        <v>0.02457722871480446</v>
+      </c>
+      <c r="G102">
+        <v>0.01363714456255922</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.004316897228540822</v>
+        <v>-0.001599893273641423</v>
       </c>
       <c r="C104">
-        <v>0.005506134117115686</v>
+        <v>-0.002516099002949859</v>
       </c>
       <c r="D104">
-        <v>-0.01052726270736035</v>
+        <v>0.006341822635635753</v>
+      </c>
+      <c r="E104">
+        <v>-0.0004820368868941136</v>
+      </c>
+      <c r="F104">
+        <v>-0.005776218552695543</v>
+      </c>
+      <c r="G104">
+        <v>-0.006359237264597617</v>
       </c>
     </row>
   </sheetData>
